--- a/BI304 MATERIAL AND SERVICES.xlsx
+++ b/BI304 MATERIAL AND SERVICES.xlsx
@@ -647,7 +647,7 @@
   <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -737,7 +737,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="3">
-        <v>700</v>
+        <v>351</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="2" t="s">
@@ -755,7 +755,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="3">
-        <v>400</v>
+        <v>142</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="2" t="s">
@@ -775,7 +775,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3">
         <f>D5+D6</f>
-        <v>1100</v>
+        <v>493</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>14</v>
@@ -966,7 +966,9 @@
         <v>7</v>
       </c>
       <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
       <c r="F18" s="2" t="s">
         <v>16</v>
       </c>
@@ -983,7 +985,7 @@
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>16</v>
